--- a/src/test/java/ApachePOI/Resources/CampusReport.xlsx
+++ b/src/test/java/ApachePOI/Resources/CampusReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>438d7587-aa12-4255-920e-7df6517cd881</t>
   </si>
@@ -92,6 +92,33 @@
   </si>
   <si>
     <t>PT8.5549627S</t>
+  </si>
+  <si>
+    <t>e0f52e90-3b82-43ef-bbb1-764d4b8dff86</t>
+  </si>
+  <si>
+    <t>2023-05-02T19:18:17.313457300</t>
+  </si>
+  <si>
+    <t>2023-05-02T19:18:27.583773700</t>
+  </si>
+  <si>
+    <t>PT10.2703164S</t>
+  </si>
+  <si>
+    <t>f309d189-4378-446b-8532-664521a65f60</t>
+  </si>
+  <si>
+    <t>Create Country</t>
+  </si>
+  <si>
+    <t>2023-05-02T19:18:32.253150500</t>
+  </si>
+  <si>
+    <t>2023-05-02T19:18:42.579061</t>
+  </si>
+  <si>
+    <t>PT10.3259105S</t>
   </si>
 </sst>
 </file>
@@ -431,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -567,6 +594,46 @@
         <v>25</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/ApachePOI/Resources/CampusReport.xlsx
+++ b/src/test/java/ApachePOI/Resources/CampusReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>438d7587-aa12-4255-920e-7df6517cd881</t>
   </si>
@@ -119,6 +119,30 @@
   </si>
   <si>
     <t>PT10.3259105S</t>
+  </si>
+  <si>
+    <t>a3094631-c24e-4bde-a036-35eb549b6549</t>
+  </si>
+  <si>
+    <t>2023-05-02T20:27:35.907376</t>
+  </si>
+  <si>
+    <t>2023-05-02T20:27:45.743372</t>
+  </si>
+  <si>
+    <t>PT9.835996S</t>
+  </si>
+  <si>
+    <t>20305fc4-9773-463e-a939-30496b1eb674</t>
+  </si>
+  <si>
+    <t>2023-05-02T20:27:49.940726400</t>
+  </si>
+  <si>
+    <t>2023-05-02T20:28:04.235301300</t>
+  </si>
+  <si>
+    <t>PT14.2945749S</t>
   </si>
 </sst>
 </file>
@@ -458,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -634,6 +658,46 @@
         <v>34</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
